--- a/GenCatalogLink/GenCatalogLink.xlsx
+++ b/GenCatalogLink/GenCatalogLink.xlsx
@@ -3,22 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFCDC37-26EA-4E65-B200-6819A13CF932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7D197-494E-4604-8C35-140C130E9D60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet20" sheetId="21" r:id="rId14"/>
+    <sheet name="Sheet13" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId16"/>
+    <sheet name="Sheet15" sheetId="16" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="17" r:id="rId18"/>
+    <sheet name="Sheet17" sheetId="18" r:id="rId19"/>
+    <sheet name="Sheet18" sheetId="19" r:id="rId20"/>
+    <sheet name="Sheet19" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>目录</t>
   </si>
@@ -66,6 +76,36 @@
   </si>
   <si>
     <t>Sheet10</t>
+  </si>
+  <si>
+    <t>Sheet11</t>
+  </si>
+  <si>
+    <t>Sheet12</t>
+  </si>
+  <si>
+    <t>Sheet20</t>
+  </si>
+  <si>
+    <t>Sheet13</t>
+  </si>
+  <si>
+    <t>Sheet14</t>
+  </si>
+  <si>
+    <t>Sheet15</t>
+  </si>
+  <si>
+    <t>Sheet16</t>
+  </si>
+  <si>
+    <t>Sheet17</t>
+  </si>
+  <si>
+    <t>Sheet18</t>
+  </si>
+  <si>
+    <t>Sheet19</t>
   </si>
 </sst>
 </file>
@@ -401,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A491B7FC-F89A-409E-B325-7DFBBE4B8C1E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -421,75 +461,157 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" location="目录!A1" display="目录" xr:uid="{4ED03621-D444-466E-A718-FE5CA7EDA008}"/>
-    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{D8644A17-422C-4B11-A9E7-D66D063A67FC}"/>
-    <hyperlink ref="B3" location="Sheet1!A1" display="Sheet1" xr:uid="{DE43B333-A4EB-4422-A85F-353D17C33826}"/>
-    <hyperlink ref="B4" location="Sheet2!A1" display="Sheet2" xr:uid="{604C3EC5-38FA-48B2-A0DF-314610B103BF}"/>
-    <hyperlink ref="B5" location="Sheet3!A1" display="Sheet3" xr:uid="{4163B3B0-6F39-4C1D-96B3-EF49DB5772EE}"/>
-    <hyperlink ref="B6" location="Sheet4!A1" display="Sheet4" xr:uid="{858A3007-E2E7-49D8-B783-A1CDDBB33065}"/>
-    <hyperlink ref="B7" location="Sheet5!A1" display="Sheet5" xr:uid="{51571606-9A8B-4295-8312-C5B6A94E378F}"/>
-    <hyperlink ref="B8" location="Sheet6!A1" display="Sheet6" xr:uid="{792D0F1F-61A2-46E1-BFD4-15C81464273C}"/>
-    <hyperlink ref="B9" location="Sheet7!A1" display="Sheet7" xr:uid="{366566BC-4289-4E8D-AA36-3C4EA85742E2}"/>
-    <hyperlink ref="B10" location="Sheet8!A1" display="Sheet8" xr:uid="{F10782C9-1F42-47B3-BEA2-27EFBEFCA668}"/>
-    <hyperlink ref="B11" location="Sheet9!A1" display="Sheet9" xr:uid="{18B30047-1CA5-4166-AD41-2DE7B67808F9}"/>
-    <hyperlink ref="B12" location="Sheet10!A1" display="Sheet10" xr:uid="{4264DD7B-6338-44CA-B8E4-649F98B91174}"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目录!A1" display="目录" xr:uid="{89AC10ED-A8F2-4C16-AFD1-FFA242C92D55}"/>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{4B36E31B-B18B-4C31-A827-B38F0893A7BC}"/>
+    <hyperlink ref="B3" location="Sheet11!A1" display="Sheet11" xr:uid="{36150CBE-A7F4-4691-BD7A-4135CA666C23}"/>
+    <hyperlink ref="B4" location="Sheet1!A1" display="Sheet1" xr:uid="{5FB470DE-F666-4164-8F07-56BE104B7545}"/>
+    <hyperlink ref="B5" location="Sheet2!A1" display="Sheet2" xr:uid="{DF239A79-0452-4BE3-B1E6-D5CE5D40AB69}"/>
+    <hyperlink ref="B6" location="Sheet3!A1" display="Sheet3" xr:uid="{BA918421-F31A-47D1-9B77-A12EFFD00C46}"/>
+    <hyperlink ref="B7" location="Sheet4!A1" display="Sheet4" xr:uid="{0657570A-B53F-4212-9C56-43A3F3CDE86F}"/>
+    <hyperlink ref="B8" location="Sheet5!A1" display="Sheet5" xr:uid="{9064E4AE-4846-4BC1-BCAC-6257B1A62F10}"/>
+    <hyperlink ref="B9" location="Sheet6!A1" display="Sheet6" xr:uid="{35A348B5-3257-4B35-9044-9C2482E9E27B}"/>
+    <hyperlink ref="B10" location="Sheet7!A1" display="Sheet7" xr:uid="{A1580793-75E3-439B-99FF-EE2D8FA476A8}"/>
+    <hyperlink ref="B11" location="Sheet8!A1" display="Sheet8" xr:uid="{62D9A844-D487-43AC-ADF5-7FA294A1B250}"/>
+    <hyperlink ref="B12" location="Sheet9!A1" display="Sheet9" xr:uid="{2D4C2B9C-35CF-4B80-A68D-3E0B92A0FF46}"/>
+    <hyperlink ref="B13" location="Sheet10!A1" display="Sheet10" xr:uid="{D98987B3-211F-4174-8814-C6F05B48E3A7}"/>
+    <hyperlink ref="B14" location="Sheet12!A1" display="Sheet12" xr:uid="{A6F03EC5-02A4-46C1-B3A6-3D01EC8ED0A7}"/>
+    <hyperlink ref="B15" location="Sheet20!A1" display="Sheet20" xr:uid="{F519C4D3-7B08-4868-B767-668312264829}"/>
+    <hyperlink ref="B16" location="Sheet13!A1" display="Sheet13" xr:uid="{34375E66-3382-49C0-AA3D-29C68BB60B38}"/>
+    <hyperlink ref="B17" location="Sheet14!A1" display="Sheet14" xr:uid="{ABC3716A-05F4-476E-9BF8-CC96C0E545F2}"/>
+    <hyperlink ref="B18" location="Sheet15!A1" display="Sheet15" xr:uid="{DFB3354D-202D-46D7-8C29-4A5C07FB18A9}"/>
+    <hyperlink ref="B19" location="Sheet16!A1" display="Sheet16" xr:uid="{93542266-092F-4FA5-A152-E6D8B9B0641A}"/>
+    <hyperlink ref="B20" location="Sheet17!A1" display="Sheet17" xr:uid="{C166F980-E48D-408A-B212-8E9C807A46C7}"/>
+    <hyperlink ref="B21" location="Sheet18!A1" display="Sheet18" xr:uid="{32F35452-359C-4784-B610-F7EBF70615D8}"/>
+    <hyperlink ref="B22" location="Sheet19!A1" display="Sheet19" xr:uid="{4DED36AD-1411-4744-B26C-C134003D9DD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A8A20C-F6C6-4372-9F7B-3F062A3B6229}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{59E6A9DC-A8B1-4BCF-85E8-46E2BC7C2782}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAC7599-789B-479A-84E5-0F0E2C85C05A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -511,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A2646-CD82-4F1B-894E-CD9A2824AC71}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -533,7 +655,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B1820-7F8E-4A3C-A91D-20167909E872}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{536F4477-3DFE-46D9-A499-F72AABFD9FB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B8A35-9347-45E2-AA04-2A5128CCC8CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{4B66DCD1-C566-48EB-B874-8ABE79011393}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FF6CCD-A726-413B-964A-6BE1639DE693}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{18478BF1-CBB8-4CE4-B5D5-3D47F0AA33BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4994CCC1-BC39-4F52-A282-59C7828E0477}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{16F973F1-675D-4212-8E96-A6CA293E89F3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054DCD80-FC72-4A56-AA0A-6301905CCB1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{F953C595-C4F2-419A-B527-8E43138C692B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C0A410-8EF0-4CF4-9B0A-872BDE01AABA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{AE538503-E923-4A9D-AC1C-4D70404A209D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DBD40-897B-409D-A013-BB73D5D7F330}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{37D8AD70-6065-4208-A940-D1648068675E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99759D1D-9E6E-4A1C-8B0C-CA8848A2858A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{FE0D6648-8E06-49D1-A4DE-6CD965AE24CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBECC880-EFD7-4AF6-BF2D-87FB9A064085}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{FDE97988-4803-4E41-B49D-DDEB298A798A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA950E5E-B5B8-4427-9F2C-D85EA8459CB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{3D145B8B-CED2-49C3-BB4D-04E58B09D035}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -555,7 +897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE58CAE-8EDD-4C87-886B-6B15EE782103}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -577,7 +919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065EFD64-726F-4F54-A4B5-8E56D956B18C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -599,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6084A6-E8D7-447A-A10A-31CC50AE3DBB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -621,7 +963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24820AE-5E12-4AEC-9199-93F4F383EC6B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -643,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F647B6-6161-40E8-AAAF-0E4FBB8CAA87}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -665,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245E6391-187C-4383-9391-4E05AB26F28C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -685,26 +1027,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A8A20C-F6C6-4372-9F7B-3F062A3B6229}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="目录!A1" display="返回目录" xr:uid="{59E6A9DC-A8B1-4BCF-85E8-46E2BC7C2782}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>